--- a/山屋資料.xlsx
+++ b/山屋資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchihsu/Desktop/NTU/111-1/IOT/Intro2IoT_FinalPrj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56958E6B-8B24-FB48-8877-FD5BD47A0E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A0BA80-20BC-3743-BB44-69E6E66FCEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="24820" windowHeight="14620" activeTab="1" xr2:uid="{FF5C419D-82FD-7D41-A477-CDC194D3744F}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="24820" windowHeight="14620" xr2:uid="{FF5C419D-82FD-7D41-A477-CDC194D3744F}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -85,6 +85,46 @@
   </si>
   <si>
     <t>deviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848857F1-88AB-DD4A-B043-E44308F29A8D}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -481,6 +521,9 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -495,6 +538,9 @@
       <c r="D2">
         <v>3227</v>
       </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10">
@@ -510,6 +556,9 @@
       <c r="D3">
         <v>2643</v>
       </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
@@ -525,6 +574,9 @@
       <c r="D4">
         <v>2978</v>
       </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">
@@ -540,6 +592,9 @@
       <c r="D5">
         <v>3383</v>
       </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10">
@@ -555,6 +610,9 @@
       <c r="D6">
         <v>2928</v>
       </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10">
@@ -570,6 +628,9 @@
       <c r="D7">
         <v>2809</v>
       </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10">
@@ -585,6 +646,9 @@
       <c r="D8" s="1">
         <v>2537</v>
       </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
@@ -599,6 +663,9 @@
       <c r="D9">
         <v>1694</v>
       </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
@@ -613,6 +680,9 @@
       <c r="D10">
         <v>2849</v>
       </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
@@ -627,6 +697,9 @@
       <c r="D11">
         <v>3369</v>
       </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
@@ -640,6 +713,9 @@
       </c>
       <c r="D12">
         <v>2714</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -652,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002D97E7-6351-4D4E-A9D2-E667D60B43A6}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -684,8 +760,8 @@
       <c r="C2">
         <v>3227</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -700,8 +776,8 @@
       <c r="C3">
         <v>2643</v>
       </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="D3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -716,8 +792,8 @@
       <c r="C4">
         <v>2978</v>
       </c>
-      <c r="D4">
-        <v>3</v>
+      <c r="D4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -732,8 +808,8 @@
       <c r="C5">
         <v>3383</v>
       </c>
-      <c r="D5">
-        <v>4</v>
+      <c r="D5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -748,8 +824,8 @@
       <c r="C6">
         <v>2928</v>
       </c>
-      <c r="D6">
-        <v>5</v>
+      <c r="D6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -764,8 +840,8 @@
       <c r="C7">
         <v>2809</v>
       </c>
-      <c r="D7">
-        <v>6</v>
+      <c r="D7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -780,8 +856,8 @@
       <c r="C8" s="1">
         <v>2537</v>
       </c>
-      <c r="D8">
-        <v>7</v>
+      <c r="D8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -796,8 +872,8 @@
       <c r="C9">
         <v>1694</v>
       </c>
-      <c r="D9">
-        <v>8</v>
+      <c r="D9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -812,8 +888,8 @@
       <c r="C10">
         <v>2849</v>
       </c>
-      <c r="D10">
-        <v>9</v>
+      <c r="D10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -828,8 +904,8 @@
       <c r="C11">
         <v>3369</v>
       </c>
-      <c r="D11">
-        <v>10</v>
+      <c r="D11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -845,7 +921,7 @@
         <v>2714</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/山屋資料.xlsx
+++ b/山屋資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchihsu/Desktop/NTU/111-1/IOT/Intro2IoT_FinalPrj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A0BA80-20BC-3743-BB44-69E6E66FCEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459CDD75-865C-DA4F-ABD4-B04FAA6EE76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="24820" windowHeight="14620" xr2:uid="{FF5C419D-82FD-7D41-A477-CDC194D3744F}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="24820" windowHeight="14340" xr2:uid="{FF5C419D-82FD-7D41-A477-CDC194D3744F}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -125,6 +125,14 @@
   </si>
   <si>
     <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterFull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterEmpty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +511,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -524,6 +532,12 @@
       <c r="E1" t="s">
         <v>15</v>
       </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -541,6 +555,12 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10">
@@ -559,6 +579,12 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
@@ -577,6 +603,12 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">
@@ -595,6 +627,12 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10">
@@ -613,6 +651,12 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10">
@@ -631,6 +675,12 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10">
@@ -649,6 +699,12 @@
       <c r="E8" t="s">
         <v>22</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
@@ -666,6 +722,12 @@
       <c r="E9" t="s">
         <v>23</v>
       </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
@@ -683,6 +745,12 @@
       <c r="E10" t="s">
         <v>24</v>
       </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
@@ -700,6 +768,12 @@
       <c r="E11" t="s">
         <v>25</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
@@ -716,6 +790,12 @@
       </c>
       <c r="E12">
         <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/山屋資料.xlsx
+++ b/山屋資料.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchihsu/Desktop/NTU/111-1/IOT/Intro2IoT_FinalPrj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459CDD75-865C-DA4F-ABD4-B04FAA6EE76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C81D952-019D-374D-8083-D52D156AEC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="24820" windowHeight="14340" xr2:uid="{FF5C419D-82FD-7D41-A477-CDC194D3744F}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$D$1:$D$92</definedName>
@@ -511,7 +512,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1008,4 +1009,22 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493DC801-130F-7D46-9798-169B5ABDABBA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/山屋資料.xlsx
+++ b/山屋資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchihsu/Desktop/NTU/111-1/IOT/Intro2IoT_FinalPrj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C81D952-019D-374D-8083-D52D156AEC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B508097-7AB6-7E47-9FC7-E88315143438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="24820" windowHeight="14340" xr2:uid="{FF5C419D-82FD-7D41-A477-CDC194D3744F}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="24820" windowHeight="14340" activeTab="1" xr2:uid="{FF5C419D-82FD-7D41-A477-CDC194D3744F}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -134,6 +134,48 @@
   </si>
   <si>
     <t>waterEmpty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fake-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fake-3</t>
+  </si>
+  <si>
+    <t>fake-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fake-4</t>
+  </si>
+  <si>
+    <t>64:45:63:7E:DC:0C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63:46:63:7E:DC:0E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64:55:63:7E:DC:2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63:46:63:7E:DC:1E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65:45:63:7E:DC:1C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,12 +230,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848857F1-88AB-DD4A-B043-E44308F29A8D}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
@@ -807,15 +852,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002D97E7-6351-4D4E-A9D2-E667D60B43A6}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D2:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -828,182 +876,112 @@
       <c r="D1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16">
       <c r="A2">
-        <f>工作表1!B2+0.01</f>
-        <v>121.06624000000001</v>
+        <f>工作表1!B2+0.001</f>
+        <v>121.05724000000001</v>
       </c>
       <c r="B2">
-        <f>工作表1!C2+0.01</f>
-        <v>23.469336000000002</v>
+        <f>工作表1!C2+0.001</f>
+        <v>23.460336000000002</v>
       </c>
       <c r="C2">
+        <f>工作表1!D2</f>
         <v>3227</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
       <c r="A3">
-        <f>工作表1!B3+0.01</f>
-        <v>121.03673500000001</v>
+        <f>工作表1!B3+0.001</f>
+        <v>121.02773500000001</v>
       </c>
       <c r="B3">
-        <f>工作表1!C3+0.01</f>
-        <v>23.429595000000003</v>
+        <f>工作表1!C3+0.001</f>
+        <v>23.420595000000002</v>
       </c>
       <c r="C3">
+        <f>工作表1!D3</f>
         <v>2643</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16">
       <c r="A4">
-        <f>工作表1!B4+0.01</f>
-        <v>121.01648300000001</v>
+        <f>工作表1!B4+0.001</f>
+        <v>121.00748300000001</v>
       </c>
       <c r="B4">
-        <f>工作表1!C4+0.01</f>
-        <v>23.396039000000002</v>
+        <f>工作表1!C4+0.001</f>
+        <v>23.387039000000001</v>
       </c>
       <c r="C4">
+        <f>工作表1!D4</f>
         <v>2978</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16">
       <c r="A5">
-        <f>工作表1!B5+0.01</f>
-        <v>121.057367</v>
+        <f>工作表1!B5+0.001</f>
+        <v>121.048367</v>
       </c>
       <c r="B5">
-        <f>工作表1!C5+0.01</f>
-        <v>23.497918000000002</v>
+        <f>工作表1!C5+0.001</f>
+        <v>23.488918000000002</v>
       </c>
       <c r="C5">
+        <f>工作表1!D5</f>
         <v>3383</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16">
       <c r="A6">
-        <f>工作表1!B6+0.01</f>
-        <v>121.037458</v>
+        <f>工作表1!B6+0.001</f>
+        <v>121.028458</v>
       </c>
       <c r="B6">
-        <f>工作表1!C6+0.01</f>
-        <v>23.496466000000002</v>
+        <f>工作表1!C6+0.001</f>
+        <v>23.487466000000001</v>
       </c>
       <c r="C6">
+        <f>工作表1!D6</f>
         <v>2928</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <f>工作表1!B7+0.01</f>
-        <v>121.02648900000001</v>
-      </c>
-      <c r="B7">
-        <f>工作表1!C7+0.01</f>
-        <v>23.497669000000002</v>
-      </c>
-      <c r="C7">
-        <v>2809</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <f>工作表1!B8+0.01</f>
-        <v>121.01199200000001</v>
-      </c>
-      <c r="B8">
-        <f>工作表1!C8+0.01</f>
-        <v>23.512384000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2537</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <f>工作表1!B9+0.01</f>
-        <v>120.96807200000001</v>
-      </c>
-      <c r="B9">
-        <f>工作表1!C9+0.01</f>
-        <v>23.556048000000001</v>
-      </c>
-      <c r="C9">
-        <v>1694</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <f>工作表1!B10+0.01</f>
-        <v>120.99440100000001</v>
-      </c>
-      <c r="B10">
-        <f>工作表1!C10+0.01</f>
-        <v>23.272574000000002</v>
-      </c>
-      <c r="C10">
-        <v>2849</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <f>工作表1!B11+0.01</f>
-        <v>121.00690800000001</v>
-      </c>
-      <c r="B11">
-        <f>工作表1!C11+0.01</f>
-        <v>23.293986</v>
-      </c>
-      <c r="C11">
-        <v>3369</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <f>工作表1!B12+0.01</f>
-        <v>121.035769</v>
-      </c>
-      <c r="B12">
-        <f>工作表1!C12+0.01</f>
-        <v>23.338229000000002</v>
-      </c>
-      <c r="C12">
-        <v>2714</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/山屋資料.xlsx
+++ b/山屋資料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchihsu/Desktop/NTU/111-1/IOT/Intro2IoT_FinalPrj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B508097-7AB6-7E47-9FC7-E88315143438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F7F161-32FB-9249-9960-3DEBD2A99DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="24820" windowHeight="14340" activeTab="1" xr2:uid="{FF5C419D-82FD-7D41-A477-CDC194D3744F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -176,6 +176,22 @@
   </si>
   <si>
     <t>65:45:63:7E:DC:1C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,10 +868,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002D97E7-6351-4D4E-A9D2-E667D60B43A6}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -863,7 +879,7 @@
     <col min="4" max="4" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -879,8 +895,14 @@
       <c r="E1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16">
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16">
       <c r="A2">
         <f>工作表1!B2+0.001</f>
         <v>121.05724000000001</v>
@@ -899,8 +921,14 @@
       <c r="E2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16">
       <c r="A3">
         <f>工作表1!B3+0.001</f>
         <v>121.02773500000001</v>
@@ -919,8 +947,14 @@
       <c r="E3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16">
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16">
       <c r="A4">
         <f>工作表1!B4+0.001</f>
         <v>121.00748300000001</v>
@@ -939,8 +973,14 @@
       <c r="E4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16">
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16">
       <c r="A5">
         <f>工作表1!B5+0.001</f>
         <v>121.048367</v>
@@ -959,8 +999,14 @@
       <c r="E5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16">
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16">
       <c r="A6">
         <f>工作表1!B6+0.001</f>
         <v>121.028458</v>
@@ -979,8 +1025,14 @@
       <c r="E6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="C8" s="1"/>
     </row>
   </sheetData>

--- a/山屋資料.xlsx
+++ b/山屋資料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchihsu/Desktop/NTU/111-1/IOT/Intro2IoT_FinalPrj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F7F161-32FB-9249-9960-3DEBD2A99DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDBD806-ADF0-094C-8691-6DB475A39A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="24820" windowHeight="14340" activeTab="1" xr2:uid="{FF5C419D-82FD-7D41-A477-CDC194D3744F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -141,24 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fake-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fake-3</t>
-  </si>
-  <si>
-    <t>fake-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fake-4</t>
-  </si>
-  <si>
     <t>64:45:63:7E:DC:0C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,6 +175,32 @@
   <si>
     <t>node</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8:27:EB:77:06:95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東埔-gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂樂山屋-node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fake-node-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fake-node-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fake-node-3</t>
+  </si>
+  <si>
+    <t>fake-node-4</t>
   </si>
 </sst>
 </file>
@@ -573,7 +581,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G12"/>
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -868,15 +876,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002D97E7-6351-4D4E-A9D2-E667D60B43A6}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -896,144 +905,164 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16">
       <c r="A2">
-        <f>工作表1!B2+0.001</f>
-        <v>121.05724000000001</v>
+        <v>120.9226</v>
       </c>
       <c r="B2">
-        <f>工作表1!C2+0.001</f>
-        <v>23.460336000000002</v>
+        <v>23.562110000000001</v>
       </c>
       <c r="C2">
-        <f>工作表1!D2</f>
-        <v>3227</v>
+        <v>1108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>-1</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16">
       <c r="A3">
+        <v>120.958072</v>
+      </c>
+      <c r="B3">
+        <v>23.546047999999999</v>
+      </c>
+      <c r="C3">
+        <v>1694</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16">
+      <c r="A4">
         <f>工作表1!B3+0.001</f>
         <v>121.02773500000001</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <f>工作表1!C3+0.001</f>
         <v>23.420595000000002</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <f>工作表1!D3</f>
         <v>2643</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3">
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4">
         <v>-1</v>
       </c>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16">
-      <c r="A4">
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16">
+      <c r="A5">
         <f>工作表1!B4+0.001</f>
         <v>121.00748300000001</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <f>工作表1!C4+0.001</f>
         <v>23.387039000000001</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <f>工作表1!D4</f>
         <v>2978</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4">
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5">
         <v>-1</v>
       </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16">
-      <c r="A5">
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16">
+      <c r="A6">
         <f>工作表1!B5+0.001</f>
         <v>121.048367</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <f>工作表1!C5+0.001</f>
         <v>23.488918000000002</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <f>工作表1!D5</f>
         <v>3383</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16">
-      <c r="A6">
+    </row>
+    <row r="7" spans="1:7" ht="16">
+      <c r="A7">
         <f>工作表1!B6+0.001</f>
         <v>121.028458</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f>工作表1!C6+0.001</f>
         <v>23.487466000000001</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <f>工作表1!D6</f>
         <v>2928</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6">
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7">
         <v>-1</v>
       </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="C8" s="1"/>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/山屋資料.xlsx
+++ b/山屋資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchihsu/Desktop/NTU/111-1/IOT/Intro2IoT_FinalPrj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDBD806-ADF0-094C-8691-6DB475A39A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA899E10-548E-9B4B-A312-185A2EC13D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="24820" windowHeight="14340" activeTab="1" xr2:uid="{FF5C419D-82FD-7D41-A477-CDC194D3744F}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="24820" windowHeight="14340" xr2:uid="{FF5C419D-82FD-7D41-A477-CDC194D3744F}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -64,143 +64,168 @@
     <t>白洋金礦山屋</t>
   </si>
   <si>
+    <t>樂樂山屋</t>
+  </si>
+  <si>
+    <t>向陽山屋</t>
+  </si>
+  <si>
+    <t>拉庫音溪山屋</t>
+  </si>
+  <si>
+    <t>deviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterFull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterEmpty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64:45:63:7E:DC:0C</t>
+  </si>
+  <si>
+    <t>64:45:63:7E:DC:0C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8:27:EB:77:06:95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東埔-gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂樂山屋-node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀高山屋-fake-node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴奈伊克山屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴奈伊克山屋-fake-node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>中央金礦山屋</t>
-  </si>
-  <si>
-    <t>巴奈伊克山屋</t>
-  </si>
-  <si>
-    <t>觀高山屋</t>
-  </si>
-  <si>
-    <t>樂樂山屋</t>
-  </si>
-  <si>
-    <t>向陽山屋</t>
-  </si>
-  <si>
-    <t>嘉明湖山屋</t>
-  </si>
-  <si>
-    <t>拉庫音溪山屋</t>
-  </si>
-  <si>
-    <t>deviceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterFull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterEmpty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64:45:63:7E:DC:0C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>63:46:63:7E:DC:0E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64:55:63:7E:DC:2C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>63:46:63:7E:DC:1E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65:45:63:7E:DC:1C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B8:27:EB:77:06:95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>東埔-gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樂樂山屋-node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fake-node-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fake-node-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fake-node-3</t>
-  </si>
-  <si>
-    <t>fake-node-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央金礦山屋-fake-node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hiking.biji.co/index.php?q=chalet&amp;act=detail&amp;id=136</t>
+  </si>
+  <si>
+    <t>https://hiking.biji.co/index.php?q=chalet&amp;act=detail&amp;id=137</t>
+  </si>
+  <si>
+    <t>觀高登山服務站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hiking.biji.co/index.php?q=chalet&amp;act=detail&amp;id=139</t>
+  </si>
+  <si>
+    <t>https://hiking.biji.co/index.php?q=chalet&amp;act=detail&amp;id=140</t>
+  </si>
+  <si>
+    <t>https://hiking.biji.co/index.php?q=chalet&amp;act=detail&amp;id=141</t>
+  </si>
+  <si>
+    <t>https://hiking.biji.co/index.php?q=chalet&amp;act=detail&amp;id=144</t>
+  </si>
+  <si>
+    <t>https://hiking.biji.co/index.php?q=chalet&amp;act=detail&amp;id=145</t>
+  </si>
+  <si>
+    <t>https://hiking.biji.co/index.php?q=chalet&amp;act=detail&amp;id=146</t>
+  </si>
+  <si>
+    <t>https://hiking.biji.co/index.php?q=chalet&amp;act=detail&amp;id=148</t>
+  </si>
+  <si>
+    <t>嘉明湖避難山屋</t>
+  </si>
+  <si>
+    <t>https://hiking.biji.co/index.php?q=chalet&amp;act=detail&amp;id=178</t>
+  </si>
+  <si>
+    <t>https://hiking.biji.co/index.php?q=chalet&amp;act=detail&amp;id=177</t>
   </si>
 </sst>
 </file>
@@ -580,11 +605,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848857F1-88AB-DD4A-B043-E44308F29A8D}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -600,30 +628,33 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>121.05624</v>
+        <v>120.958072</v>
       </c>
       <c r="C2">
-        <v>23.459336</v>
+        <v>23.546047999999999</v>
       </c>
       <c r="D2">
-        <v>3227</v>
+        <v>1694</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -631,23 +662,25 @@
       <c r="G2">
         <v>100</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>121.026735</v>
-      </c>
-      <c r="C3">
-        <v>23.419595000000001</v>
-      </c>
-      <c r="D3">
-        <v>2643</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1">
+        <v>121.001992</v>
+      </c>
+      <c r="C3" s="1">
+        <v>23.502383999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2537</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -655,23 +688,26 @@
       <c r="G3">
         <v>100</v>
       </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>121.006483</v>
+        <v>121.01648900000001</v>
       </c>
       <c r="C4">
-        <v>23.386039</v>
+        <v>23.487669</v>
       </c>
       <c r="D4">
-        <v>2978</v>
+        <v>2809</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -679,23 +715,25 @@
       <c r="G4">
         <v>100</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>121.04736699999999</v>
+        <v>121.027458</v>
       </c>
       <c r="C5">
-        <v>23.487918000000001</v>
+        <v>23.486466</v>
       </c>
       <c r="D5">
-        <v>3383</v>
+        <v>2928</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -703,23 +741,26 @@
       <c r="G5">
         <v>100</v>
       </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>121.027458</v>
+        <v>121.04736699999999</v>
       </c>
       <c r="C6">
-        <v>23.486466</v>
+        <v>23.487918000000001</v>
       </c>
       <c r="D6">
-        <v>2928</v>
+        <v>3383</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -727,23 +768,26 @@
       <c r="G6">
         <v>100</v>
       </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>121.01648900000001</v>
+        <v>121.05624</v>
       </c>
       <c r="C7">
-        <v>23.487669</v>
+        <v>23.459336</v>
       </c>
       <c r="D7">
-        <v>2809</v>
+        <v>3227</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -751,23 +795,26 @@
       <c r="G7">
         <v>100</v>
       </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>121.001992</v>
-      </c>
-      <c r="C8" s="1">
-        <v>23.502383999999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2537</v>
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>121.026735</v>
+      </c>
+      <c r="C8">
+        <v>23.419595000000001</v>
+      </c>
+      <c r="D8">
+        <v>2643</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -775,22 +822,26 @@
       <c r="G8">
         <v>100</v>
       </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>120.958072</v>
+        <v>121.006483</v>
       </c>
       <c r="C9">
-        <v>23.546047999999999</v>
+        <v>23.386039</v>
       </c>
       <c r="D9">
-        <v>1694</v>
+        <v>2978</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -798,22 +849,26 @@
       <c r="G9">
         <v>100</v>
       </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>120.98440100000001</v>
+        <v>121.025769</v>
       </c>
       <c r="C10">
-        <v>23.262574000000001</v>
+        <v>23.328229</v>
       </c>
       <c r="D10">
-        <v>2849</v>
+        <v>2714</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -821,10 +876,13 @@
       <c r="G10">
         <v>100</v>
       </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>120.996908</v>
@@ -836,7 +894,7 @@
         <v>3369</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -844,33 +902,40 @@
       <c r="G11">
         <v>100</v>
       </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>121.025769</v>
+        <v>120.98440100000001</v>
       </c>
       <c r="C12">
-        <v>23.328229</v>
+        <v>23.262574000000001</v>
       </c>
       <c r="D12">
-        <v>2714</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+        <v>2849</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
         <v>100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -878,13 +943,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002D97E7-6351-4D4E-A9D2-E667D60B43A6}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -899,16 +964,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16">
@@ -922,16 +987,16 @@
         <v>1108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>-1</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16">
@@ -945,121 +1010,89 @@
         <v>1694</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>-1</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16">
-      <c r="A4">
-        <f>工作表1!B3+0.001</f>
-        <v>121.02773500000001</v>
-      </c>
-      <c r="B4">
-        <f>工作表1!C3+0.001</f>
-        <v>23.420595000000002</v>
-      </c>
-      <c r="C4">
-        <f>工作表1!D3</f>
-        <v>2643</v>
+      <c r="A4" s="1">
+        <v>121.001992</v>
+      </c>
+      <c r="B4" s="1">
+        <v>23.502383999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2537</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>-1</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16">
       <c r="A5">
-        <f>工作表1!B4+0.001</f>
-        <v>121.00748300000001</v>
+        <v>121.01648900000001</v>
       </c>
       <c r="B5">
-        <f>工作表1!C4+0.001</f>
-        <v>23.387039000000001</v>
+        <v>23.487669</v>
       </c>
       <c r="C5">
-        <f>工作表1!D4</f>
-        <v>2978</v>
+        <v>2809</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F5">
         <v>-1</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16">
       <c r="A6">
-        <f>工作表1!B5+0.001</f>
-        <v>121.048367</v>
+        <v>121.027458</v>
       </c>
       <c r="B6">
-        <f>工作表1!C5+0.001</f>
-        <v>23.488918000000002</v>
+        <v>23.486466</v>
       </c>
       <c r="C6">
-        <f>工作表1!D5</f>
-        <v>3383</v>
+        <v>2928</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>-1</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16">
-      <c r="A7">
-        <f>工作表1!B6+0.001</f>
-        <v>121.028458</v>
-      </c>
-      <c r="B7">
-        <f>工作表1!C6+0.001</f>
-        <v>23.487466000000001</v>
-      </c>
-      <c r="C7">
-        <f>工作表1!D6</f>
-        <v>2928</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="D7" s="2"/>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" s="1"/>
